--- a/articles/article7/article_sheet.xlsx
+++ b/articles/article7/article_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backups\All Files\Genel\Is\2022\Upwork\LabX\text_and_image_processing\article_generation\jamario_fix_image_text\articles\article7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamariorankins/repos/article_study/articles/article7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBC02D5-A7E9-47CE-8350-AA65D4BF3AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DEF6CD-2A19-D64C-90B6-59C720F36DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>type</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>header</t>
-  </si>
-  <si>
-    <t>white</t>
   </si>
   <si>
     <t>normal</t>
@@ -423,18 +420,18 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="86.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="86.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,140 +448,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>700</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>700</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8">
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>400</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/articles/article7/article_sheet.xlsx
+++ b/articles/article7/article_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamariorankins/repos/article_study/articles/article7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DEF6CD-2A19-D64C-90B6-59C720F36DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D28EC6-52A7-F243-95B1-731BB887E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>700</v>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>

--- a/articles/article7/article_sheet.xlsx
+++ b/articles/article7/article_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamariorankins/repos/article_study/articles/article7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D28EC6-52A7-F243-95B1-731BB887E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A746B-8F5B-E941-9EA5-B0B0360EE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>type</t>
   </si>
@@ -90,10 +90,13 @@
     <t>article7.jpg</t>
   </si>
   <si>
-    <t>The most color island in Italy is Burano (Chait Goli Image)</t>
-  </si>
-  <si>
     <t>Exploring the Amalfi Coast in Italy has been really amazing. Everywhere you look, it's like a painting of colorful charm. Villages with soft colors stick to the cliffs, and the sea below is a beautiful blue. Lemon groves give the air a fresh lemon smell, and the houses in [Positano] have reddish-brown roofs. [Ravello] is filled with lush greenery. My favorite color in this beautiful place has to be the deep turquoise of the sea. It's like an invitation to discover and captures the timeless beauty of [the Mediterranean].</t>
+  </si>
+  <si>
+    <t>The most color island in Italy is Burano. Chait/Goli Image</t>
+  </si>
+  <si>
+    <t>#363636</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -555,16 +558,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -581,7 +584,7 @@
         <v>400</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/articles/article7/article_sheet.xlsx
+++ b/articles/article7/article_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamariorankins/repos/article_study/articles/article7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A746B-8F5B-E941-9EA5-B0B0360EE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3006970-AF4A-F242-BDF1-D727A4D49133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
